--- a/data/trans_dic/P16A_n_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R3-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,4</t>
+          <t>0,61; 3,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,24</t>
+          <t>0,23; 3,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,42</t>
+          <t>0,61; 3,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,95</t>
+          <t>1,65; 4,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,31</t>
+          <t>0,68; 3,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,76</t>
+          <t>0,99; 4,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,23</t>
+          <t>0,58; 3,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,5</t>
+          <t>3,26; 6,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,89</t>
+          <t>0,89; 2,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,12</t>
+          <t>0,8; 3,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,8</t>
+          <t>0,83; 2,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,73</t>
+          <t>2,63; 4,84</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,94</t>
+          <t>0,22; 1,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,5</t>
+          <t>0,75; 4,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,43</t>
+          <t>3,05; 6,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,86</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,37</t>
+          <t>1,15; 4,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,34</t>
+          <t>0,56; 3,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,61</t>
+          <t>3,91; 7,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,3</t>
+          <t>0,24; 1,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,51</t>
+          <t>1,25; 3,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,0</t>
+          <t>0,42; 2,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,42</t>
+          <t>3,77; 6,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,92</t>
+          <t>0,62; 3,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,13</t>
+          <t>1,7; 5,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,38</t>
+          <t>0,45; 2,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,25</t>
+          <t>1,3; 7,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,32</t>
+          <t>1,13; 6,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,44</t>
+          <t>1,91; 6,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 10,64</t>
+          <t>2,67; 11,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 16,86</t>
+          <t>9,4; 17,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,11</t>
+          <t>1,01; 2,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,78</t>
+          <t>2,09; 4,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,58</t>
+          <t>1,21; 3,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 8,8</t>
+          <t>2,59; 8,98</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,73</t>
+          <t>1,13; 2,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,63</t>
+          <t>1,1; 2,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,81</t>
+          <t>1,2; 2,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,07</t>
+          <t>4,68; 7,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,54</t>
+          <t>1,34; 3,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,13</t>
+          <t>2,3; 5,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,43</t>
+          <t>2,13; 4,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 6,46</t>
+          <t>2,33; 6,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,68</t>
+          <t>1,47; 2,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,23</t>
+          <t>1,83; 3,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,1</t>
+          <t>1,79; 3,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,43</t>
+          <t>3,77; 6,32</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,46</t>
+          <t>1,1; 4,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,35</t>
+          <t>0,86; 3,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,83</t>
+          <t>1,97; 4,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,7</t>
+          <t>4,19; 7,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,6</t>
+          <t>1,11; 3,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,2</t>
+          <t>4,29; 7,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,65</t>
+          <t>4,03; 7,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,32; 16,73</t>
+          <t>10,12; 16,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,31</t>
+          <t>1,29; 3,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,72</t>
+          <t>3,35; 5,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,83</t>
+          <t>3,49; 5,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,87; 12,92</t>
+          <t>8,89; 12,91</t>
         </is>
       </c>
     </row>
@@ -1434,52 +1435,52 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,51</t>
+          <t>0,6; 3,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,85</t>
+          <t>2,84; 4,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,87</t>
+          <t>5,55; 8,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,6</t>
+          <t>4,48; 7,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,11; 14,63</t>
+          <t>11,06; 14,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,88</t>
+          <t>2,17; 4,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,17</t>
+          <t>4,47; 7,1</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,27</t>
+          <t>3,64; 6,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,61; 11,61</t>
+          <t>8,68; 11,73</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,95</t>
+          <t>1,09; 1,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,41</t>
+          <t>1,35; 2,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,15</t>
+          <t>1,29; 2,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,27</t>
+          <t>3,46; 5,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,19</t>
+          <t>2,1; 3,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,21; 5,73</t>
+          <t>4,25; 5,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,16</t>
+          <t>3,67; 5,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,5; 10,08</t>
+          <t>7,44; 10,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,4</t>
+          <t>1,74; 2,44</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,93</t>
+          <t>2,98; 3,93</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,49</t>
+          <t>2,63; 3,51</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 7,51</t>
+          <t>5,95; 7,62</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido cinco o más medicamentos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7349</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4892</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6772</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13402</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5488</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7698</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5266</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20786</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12837</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12590</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12037</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>34188</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2892; 14681</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1003; 13516</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2607; 14855</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8319; 20397</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2088; 11809</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3115; 14623</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2030; 11717</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14593; 29906</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6908; 21814</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6050; 24161</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6426; 20867</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25019; 46152</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2667</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8392</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20563</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8047</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20745</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4596</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16439</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7456</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>41308</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>823; 7169</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3153; 18763</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7635</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13775; 30161</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6400</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3892; 15221</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2092; 12437</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14963; 28227</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1742; 10311</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9460; 27016</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3141; 15807</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>31484; 52799</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7930</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18988</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5799</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27990</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4866</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9223</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21042</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12796</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>28211</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15185</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>49032</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3388; 16432</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10703; 32493</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2365; 12701</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8689; 48893</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1898; 10815</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4980; 17040</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4444; 18513</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15687; 28388</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7147; 20920</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18592; 44174</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8298; 24772</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21660; 74969</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22231</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>20258</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21742</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>60042</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16509</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26446</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25490</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>47020</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>38740</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>46703</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>47232</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>107062</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13968; 32045</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12739; 30536</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13812; 32334</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>48459; 74933</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9586; 25097</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17612; 38711</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17590; 38018</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22786; 64193</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>28651; 52450</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>35192; 63251</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>35440; 62868</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>75902; 127203</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8237</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9365</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19562</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>27131</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11687</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>46732</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>42419</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>117882</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>19925</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>56098</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>61981</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>145012</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3864; 14823</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4403; 16552</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12244; 29797</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19893; 36912</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6328; 20035</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>32634; 60024</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>29768; 56731</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>85110; 140474</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11898; 30130</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>42677; 72898</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>47404; 78444</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>117010; 169921</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3642</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>46465</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>78984</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>64390</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>97265</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>46465</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>78984</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>65584</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>100907</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1864</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5308</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1447; 8401</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>35510; 62154</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>61536; 98097</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>48458; 82100</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>84206; 113184</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>33555; 62178</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>61515; 97678</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>49870; 84470</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>86959; 117528</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>48414</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>61895</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>56263</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>152769</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>86946</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>177131</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>153213</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>324741</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>135360</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>239025</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>209475</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>477510</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>35524; 63649</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>46208; 83188</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>43620; 72099</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>116832; 178213</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>70791; 105674</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>151009; 204937</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>129765; 180250</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>266124; 361339</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>115983; 161916</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>207464; 274241</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>181613; 242649</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>413679; 529892</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A_n_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R3-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
